--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H2">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.74034076733355</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N2">
-        <v>1.74034076733355</v>
+        <v>6.991456</v>
       </c>
       <c r="O2">
-        <v>0.02894206868094597</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P2">
-        <v>0.02894206868094597</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q2">
-        <v>5.102590840105935</v>
+        <v>12.32093648330311</v>
       </c>
       <c r="R2">
-        <v>5.102590840105935</v>
+        <v>110.888428349728</v>
       </c>
       <c r="S2">
-        <v>0.00969476177177169</v>
+        <v>0.01489701891297517</v>
       </c>
       <c r="T2">
-        <v>0.00969476177177169</v>
+        <v>0.01489701891297517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H3">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.1574503250236</v>
+        <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>29.1574503250236</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4848917784998182</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P3">
-        <v>0.4848917784998182</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q3">
-        <v>85.48816515817138</v>
+        <v>154.2638696078563</v>
       </c>
       <c r="R3">
-        <v>85.48816515817138</v>
+        <v>1388.374826470707</v>
       </c>
       <c r="S3">
-        <v>0.16242481936826</v>
+        <v>0.1865176227676553</v>
       </c>
       <c r="T3">
-        <v>0.16242481936826</v>
+        <v>0.1865176227676553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H4">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I4">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J4">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.211868143211698</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N4">
-        <v>0.211868143211698</v>
+        <v>1.181368</v>
       </c>
       <c r="O4">
-        <v>0.003523391778917188</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P4">
-        <v>0.003523391778917188</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q4">
-        <v>0.6211866475544475</v>
+        <v>2.081906843353778</v>
       </c>
       <c r="R4">
-        <v>0.6211866475544475</v>
+        <v>18.737161590184</v>
       </c>
       <c r="S4">
-        <v>0.001180235051674424</v>
+        <v>0.002517195479623079</v>
       </c>
       <c r="T4">
-        <v>0.001180235051674424</v>
+        <v>0.002517195479623078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H5">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I5">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J5">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.163356229173161</v>
+        <v>0.4229803333333333</v>
       </c>
       <c r="N5">
-        <v>9.163356229173161</v>
+        <v>1.268941</v>
       </c>
       <c r="O5">
-        <v>0.152387676201505</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="P5">
-        <v>0.152387676201505</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="Q5">
-        <v>26.86649559513841</v>
+        <v>2.236235408198111</v>
       </c>
       <c r="R5">
-        <v>26.86649559513841</v>
+        <v>20.126118673783</v>
       </c>
       <c r="S5">
-        <v>0.05104549484743968</v>
+        <v>0.002703791324217677</v>
       </c>
       <c r="T5">
-        <v>0.05104549484743968</v>
+        <v>0.002703791324217677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H6">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I6">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J6">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.8588564660058</v>
+        <v>9.749056666666668</v>
       </c>
       <c r="N6">
-        <v>19.8588564660058</v>
+        <v>29.24717</v>
       </c>
       <c r="O6">
-        <v>0.3302550848388138</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="P6">
-        <v>0.3302550848388138</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="Q6">
-        <v>58.22515969310665</v>
+        <v>51.5418424840789</v>
       </c>
       <c r="R6">
-        <v>58.22515969310665</v>
+        <v>463.8765823567101</v>
       </c>
       <c r="S6">
-        <v>0.1106259682652339</v>
+        <v>0.06231829888380905</v>
       </c>
       <c r="T6">
-        <v>0.1106259682652339</v>
+        <v>0.06231829888380904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.66256953277748</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H7">
-        <v>2.66256953277748</v>
+        <v>15.860563</v>
       </c>
       <c r="I7">
-        <v>0.3041950050591866</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J7">
-        <v>0.3041950050591866</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.74034076733355</v>
+        <v>21.67565866666666</v>
       </c>
       <c r="N7">
-        <v>1.74034076733355</v>
+        <v>65.02697599999999</v>
       </c>
       <c r="O7">
-        <v>0.02894206868094597</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="P7">
-        <v>0.02894206868094597</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="Q7">
-        <v>4.633778303752891</v>
+        <v>114.5960499497209</v>
       </c>
       <c r="R7">
-        <v>4.633778303752891</v>
+        <v>1031.364449547488</v>
       </c>
       <c r="S7">
-        <v>0.008804032728823685</v>
+        <v>0.1385559876691754</v>
       </c>
       <c r="T7">
-        <v>0.008804032728823685</v>
+        <v>0.1385559876691754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H8">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I8">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J8">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.1574503250236</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N8">
-        <v>29.1574503250236</v>
+        <v>6.991456</v>
       </c>
       <c r="O8">
-        <v>0.4848917784998182</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P8">
-        <v>0.4848917784998182</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q8">
-        <v>77.63373888888067</v>
+        <v>7.074968165091556</v>
       </c>
       <c r="R8">
-        <v>77.63373888888067</v>
+        <v>63.67471348582401</v>
       </c>
       <c r="S8">
-        <v>0.1475016570139102</v>
+        <v>0.008554214584816252</v>
       </c>
       <c r="T8">
-        <v>0.1475016570139102</v>
+        <v>0.008554214584816252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H9">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I9">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J9">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.211868143211698</v>
+        <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>0.211868143211698</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.003523391778917188</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P9">
-        <v>0.003523391778917188</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q9">
-        <v>0.5641136630816029</v>
+        <v>88.58190024585068</v>
       </c>
       <c r="R9">
-        <v>0.5641136630816029</v>
+        <v>797.2371022126562</v>
       </c>
       <c r="S9">
-        <v>0.00107179818001321</v>
+        <v>0.1071027551434909</v>
       </c>
       <c r="T9">
-        <v>0.00107179818001321</v>
+        <v>0.1071027551434909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1030,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H10">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I10">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J10">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.163356229173161</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N10">
-        <v>9.163356229173161</v>
+        <v>1.181368</v>
       </c>
       <c r="O10">
-        <v>0.152387676201505</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P10">
-        <v>0.152387676201505</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q10">
-        <v>24.39807311378319</v>
+        <v>1.195479309496889</v>
       </c>
       <c r="R10">
-        <v>24.39807311378319</v>
+        <v>10.759313785472</v>
       </c>
       <c r="S10">
-        <v>0.04635556993307449</v>
+        <v>0.001445432164006354</v>
       </c>
       <c r="T10">
-        <v>0.04635556993307449</v>
+        <v>0.001445432164006354</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,60 +1092,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H11">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I11">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J11">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>19.8588564660058</v>
+        <v>0.4229803333333333</v>
       </c>
       <c r="N11">
-        <v>19.8588564660058</v>
+        <v>1.268941</v>
       </c>
       <c r="O11">
-        <v>0.3302550848388138</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="P11">
-        <v>0.3302550848388138</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="Q11">
-        <v>52.8755861821881</v>
+        <v>1.284098359251556</v>
       </c>
       <c r="R11">
-        <v>52.8755861821881</v>
+        <v>11.556885233264</v>
       </c>
       <c r="S11">
-        <v>0.1004619472033651</v>
+        <v>0.001552579835941372</v>
       </c>
       <c r="T11">
-        <v>0.1004619472033651</v>
+        <v>0.001552579835941372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1151,117 +1154,117 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.15831897853001</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H12">
-        <v>3.15831897853001</v>
+        <v>9.107504</v>
       </c>
       <c r="I12">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J12">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.74034076733355</v>
+        <v>9.749056666666668</v>
       </c>
       <c r="N12">
-        <v>1.74034076733355</v>
+        <v>29.24717</v>
       </c>
       <c r="O12">
-        <v>0.02894206868094597</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="P12">
-        <v>0.02894206868094597</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="Q12">
-        <v>5.496551274579032</v>
+        <v>29.59652419596445</v>
       </c>
       <c r="R12">
-        <v>5.496551274579032</v>
+        <v>266.36871776368</v>
       </c>
       <c r="S12">
-        <v>0.01044327418035059</v>
+        <v>0.03578461599108975</v>
       </c>
       <c r="T12">
-        <v>0.01044327418035059</v>
+        <v>0.03578461599108975</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.15831897853001</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H13">
-        <v>3.15831897853001</v>
+        <v>9.107504</v>
       </c>
       <c r="I13">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J13">
-        <v>0.3608337156364338</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.1574503250236</v>
+        <v>21.67565866666666</v>
       </c>
       <c r="N13">
-        <v>29.1574503250236</v>
+        <v>65.02697599999999</v>
       </c>
       <c r="O13">
-        <v>0.4848917784998182</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="P13">
-        <v>0.4848917784998182</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="Q13">
-        <v>92.08852872706804</v>
+        <v>65.80371600310043</v>
       </c>
       <c r="R13">
-        <v>92.08852872706804</v>
+        <v>592.2334440279039</v>
       </c>
       <c r="S13">
-        <v>0.174965302117648</v>
+        <v>0.07956206926078006</v>
       </c>
       <c r="T13">
-        <v>0.174965302117648</v>
+        <v>0.07956206926078006</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1278,55 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H14">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I14">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J14">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.211868143211698</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N14">
-        <v>0.211868143211698</v>
+        <v>6.991456</v>
       </c>
       <c r="O14">
-        <v>0.003523391778917188</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P14">
-        <v>0.003523391778917188</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q14">
-        <v>0.6691471776514198</v>
+        <v>10.83878665272533</v>
       </c>
       <c r="R14">
-        <v>0.6691471776514198</v>
+        <v>97.549079874528</v>
       </c>
       <c r="S14">
-        <v>0.001271358547229553</v>
+        <v>0.01310497866604251</v>
       </c>
       <c r="T14">
-        <v>0.001271358547229553</v>
+        <v>0.01310497866604251</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1340,55 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H15">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I15">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J15">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.163356229173161</v>
+        <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>9.163356229173161</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.152387676201505</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P15">
-        <v>0.152387676201505</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q15">
-        <v>28.94080188562878</v>
+        <v>135.706662652573</v>
       </c>
       <c r="R15">
-        <v>28.94080188562878</v>
+        <v>1221.359963873157</v>
       </c>
       <c r="S15">
-        <v>0.05498661142099079</v>
+        <v>0.1640804433081652</v>
       </c>
       <c r="T15">
-        <v>0.05498661142099079</v>
+        <v>0.1640804433081653</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1402,241 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.650871</v>
+      </c>
+      <c r="H16">
+        <v>13.952613</v>
+      </c>
+      <c r="I16">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J16">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3937893333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.181368</v>
+      </c>
+      <c r="O16">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="P16">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="Q16">
+        <v>1.831463390509333</v>
+      </c>
+      <c r="R16">
+        <v>16.483170514584</v>
+      </c>
+      <c r="S16">
+        <v>0.002214388882193539</v>
+      </c>
+      <c r="T16">
+        <v>0.002214388882193539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.15831897853001</v>
-      </c>
-      <c r="H16">
-        <v>3.15831897853001</v>
-      </c>
-      <c r="I16">
-        <v>0.3608337156364338</v>
-      </c>
-      <c r="J16">
-        <v>0.3608337156364338</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.8588564660058</v>
-      </c>
-      <c r="N16">
-        <v>19.8588564660058</v>
-      </c>
-      <c r="O16">
-        <v>0.3302550848388138</v>
-      </c>
-      <c r="P16">
-        <v>0.3302550848388138</v>
-      </c>
-      <c r="Q16">
-        <v>62.72060326848952</v>
-      </c>
-      <c r="R16">
-        <v>62.72060326848952</v>
-      </c>
-      <c r="S16">
-        <v>0.1191671693702148</v>
-      </c>
-      <c r="T16">
-        <v>0.1191671693702148</v>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.650871</v>
+      </c>
+      <c r="H17">
+        <v>13.952613</v>
+      </c>
+      <c r="I17">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J17">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.268941</v>
+      </c>
+      <c r="O17">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P17">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q17">
+        <v>1.967226965870333</v>
+      </c>
+      <c r="R17">
+        <v>17.705042692833</v>
+      </c>
+      <c r="S17">
+        <v>0.002378538137616349</v>
+      </c>
+      <c r="T17">
+        <v>0.002378538137616349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.650871</v>
+      </c>
+      <c r="H18">
+        <v>13.952613</v>
+      </c>
+      <c r="I18">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J18">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N18">
+        <v>29.24717</v>
+      </c>
+      <c r="O18">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P18">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q18">
+        <v>45.34160492835667</v>
+      </c>
+      <c r="R18">
+        <v>408.0744443552101</v>
+      </c>
+      <c r="S18">
+        <v>0.05482170507718544</v>
+      </c>
+      <c r="T18">
+        <v>0.05482170507718544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.650871</v>
+      </c>
+      <c r="H19">
+        <v>13.952613</v>
+      </c>
+      <c r="I19">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="J19">
+        <v>0.3584884179824196</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N19">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O19">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P19">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q19">
+        <v>100.8106922986986</v>
+      </c>
+      <c r="R19">
+        <v>907.2962306882878</v>
+      </c>
+      <c r="S19">
+        <v>0.1218883639112165</v>
+      </c>
+      <c r="T19">
+        <v>0.1218883639112165</v>
       </c>
     </row>
   </sheetData>
